--- a/biology/Zoologie/Caerois_gerdrudtus/Caerois_gerdrudtus.xlsx
+++ b/biology/Zoologie/Caerois_gerdrudtus/Caerois_gerdrudtus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caerois gerdrudtus est une espèce de Lépidoptère de la famille des Nymphalidés et du genre Caerois.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caerois gerdrudtus a été décrit par Johan Christian Fabricius en 1793 sous le nom initial de Papilio gerdrudtus[1].
-Nom vernaculaire
-Caerois gerdrudtus se nomme False Antirrhea en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caerois gerdrudtus a été décrit par Johan Christian Fabricius en 1793 sous le nom initial de Papilio gerdrudtus.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caerois gerdrudtus se nomme False Antirrhea en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Caerois gerdrudtus est un grand papillon, aux ailes antérieures à bord externe concave et apex pointu et aux ailes postérieures en pointe formant une queue. Le dessus des ailes est de couleur marron beige très largement suffusé de bleu avec près de l'apex des ailes antérieures un gros ocelle pupillé de blanc et (ou pas) un second à l'angle externe. Les ailes postérieures peuvent présenter une ligne submarginale de gros ocelles peu visibles.
 Le revers est beige.
@@ -552,38 +603,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Caerois_gerdrudtus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Caerois_gerdrudtus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôte de sa chenille sont des Heliconia et des Musa[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -605,17 +624,125 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôte de sa chenille sont des Heliconia et des Musa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caerois gerdrudtus est présent présent au Costa Rica, à Panama et en Équateur[1].
-Biotope
-Protection
-Pas de statut de protection particulier.
-Philatélie
-Antigua a émis un timbre en 1985.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caerois gerdrudtus est présent présent au Costa Rica, à Panama et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caerois_gerdrudtus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antigua a émis un timbre en 1985.
 </t>
         </is>
       </c>
